--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2381.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2381.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>0.9102510809898376</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.713655829429626</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.994026184082031</v>
       </c>
       <c r="D1">
-        <v>0.981420175742775</v>
+        <v>3.813498497009277</v>
       </c>
       <c r="E1">
-        <v>0.7471880387720736</v>
+        <v>0.9171925783157349</v>
       </c>
     </row>
   </sheetData>
